--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -133,6 +133,36 @@
   </si>
   <si>
     <t>Vincent</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Volleyball</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>BSTM</t>
+  </si>
+  <si>
+    <t>Gab</t>
+  </si>
+  <si>
+    <t>Samler</t>
+  </si>
+  <si>
+    <t>VolleyballBasketball</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Vin</t>
   </si>
 </sst>
 </file>
@@ -195,7 +225,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -219,6 +249,146 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -244,7 +414,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="34">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="174">
       <alignment/>
       <protection/>
     </xf>
@@ -257,7 +427,7 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="34"/>
+    <cellStyle name="Hyperlink" xfId="174"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -680,7 +850,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C448CD-4BBC-4E04-BF29-C9148C174F0A}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0" topLeftCell="A1">
       <selection activeCell="E38" sqref="E38"/>
@@ -748,8 +918,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="15">
+    <row r="2" spans="4:13" ht="15">
       <c r="D2" s="1"/>
+      <c r="M2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" ht="15">
       <c r="D3" s="1"/>
@@ -835,6 +1008,134 @@
       </c>
       <c r="L19">
         <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="6">
+        <v>45814</v>
+      </c>
+      <c r="E20">
+        <v>-1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L20" t="s">
+        <v>41</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="6">
+        <v>45789</v>
+      </c>
+      <c r="E21">
+        <v>-1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" t="s">
+        <v>45</v>
+      </c>
+      <c r="L21" t="s">
+        <v>45</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="15">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="6">
+        <v>45814</v>
+      </c>
+      <c r="E23">
+        <v>-1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L23" t="s">
+        <v>46</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="65416" yWindow="65416" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="65416" yWindow="65416" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Evaluation Warning" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
+    <sheet name="Evaluation Warning" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>Name</t>
   </si>
@@ -39,18 +39,12 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Fav Color</t>
-  </si>
-  <si>
     <t>Course</t>
   </si>
   <si>
     <t>Address</t>
   </si>
   <si>
-    <t>Saying</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -63,106 +57,94 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Picture</t>
-  </si>
-  <si>
     <t>User</t>
   </si>
   <si>
     <t>Message</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
+    <t xml:space="preserve"> Favorite Color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saying </t>
+  </si>
+  <si>
+    <t>Pictures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date </t>
+  </si>
+  <si>
+    <t>Vincent</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>VolleyballBasketball</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>BSIT</t>
+  </si>
+  <si>
+    <t>Cebu City</t>
+  </si>
+  <si>
+    <t>daadw</t>
+  </si>
+  <si>
+    <t>Vincent@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.e-iceblue.com/Buy/Spire.XLS.html</t>
+  </si>
+  <si>
+    <t>Buy Now!</t>
+  </si>
+  <si>
+    <t>mailto:support@e-iceblue.com</t>
+  </si>
+  <si>
+    <t>Contact US</t>
+  </si>
+  <si>
+    <t>https://www.e-iceblue.com</t>
+  </si>
+  <si>
+    <t>Home page</t>
+  </si>
+  <si>
+    <t>e-iceblue Inc. 2002-2025 All rights reserverd</t>
+  </si>
+  <si>
+    <t>Spire.XLS for .NET</t>
+  </si>
+  <si>
     <t>user</t>
   </si>
   <si>
     <t>message</t>
   </si>
   <si>
-    <t>Spire.XLS for .NET</t>
-  </si>
-  <si>
-    <t>e-iceblue Inc. 2002-2025 All rights reserverd</t>
-  </si>
-  <si>
-    <t>Home page</t>
-  </si>
-  <si>
-    <t>https://www.e-iceblue.com</t>
-  </si>
-  <si>
-    <t>Contact US</t>
-  </si>
-  <si>
-    <t>mailto:support@e-iceblue.com</t>
-  </si>
-  <si>
-    <t>Buy Now!</t>
-  </si>
-  <si>
-    <t>https://www.e-iceblue.com/Buy/Spire.XLS.html</t>
-  </si>
-  <si>
-    <t>Vincent Rupita</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>BadmintonTennis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blue </t>
-  </si>
-  <si>
-    <t>BSIT</t>
-  </si>
-  <si>
-    <t>Cebu City</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>VincentRupita@gmail.com</t>
-  </si>
-  <si>
-    <t>Vincent</t>
-  </si>
-  <si>
-    <t>Gabriel</t>
-  </si>
-  <si>
-    <t>Volleyball</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>BSTM</t>
-  </si>
-  <si>
-    <t>Gab</t>
-  </si>
-  <si>
-    <t>Samler</t>
-  </si>
-  <si>
-    <t>VolleyballBasketball</t>
+    <t>Allosada</t>
   </si>
   <si>
     <t>Orange</t>
   </si>
   <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>Vin</t>
+    <t>dawadw</t>
+  </si>
+  <si>
+    <t>allosada@gmail.com</t>
+  </si>
+  <si>
+    <t>allosada</t>
   </si>
 </sst>
 </file>
@@ -192,17 +174,17 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
+      <u val="single"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u val="single"/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -225,7 +207,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="175">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -263,147 +245,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment/>
       <protection/>
     </xf>
@@ -412,9 +254,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="174">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="34">
       <alignment/>
       <protection/>
     </xf>
@@ -427,7 +269,7 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="174"/>
+    <cellStyle name="Hyperlink" xfId="34"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -518,35 +360,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N1048576" totalsRowShown="0">
-  <autoFilter ref="A1:N1048576"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N20" totalsRowShown="0">
+  <autoFilter ref="A1:N20"/>
   <tableColumns count="14">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Gender"/>
     <tableColumn id="3" name="Hobbies"/>
     <tableColumn id="4" name="Birthday"/>
     <tableColumn id="5" name="Age"/>
-    <tableColumn id="6" name="Fav Color"/>
+    <tableColumn id="6" name=" Favorite Color"/>
     <tableColumn id="7" name="Course"/>
     <tableColumn id="8" name="Address"/>
-    <tableColumn id="9" name="Saying"/>
+    <tableColumn id="9" name="Saying "/>
     <tableColumn id="10" name="Email"/>
     <tableColumn id="11" name="Username"/>
     <tableColumn id="12" name="Password"/>
     <tableColumn id="13" name="Status"/>
-    <tableColumn id="14" name="Picture"/>
+    <tableColumn id="14" name="Pictures"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D1048576" totalsRowShown="0">
-  <autoFilter ref="A1:D1048576"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D21" totalsRowShown="0">
+  <autoFilter ref="A1:D21"/>
   <tableColumns count="4">
     <tableColumn id="1" name="User"/>
     <tableColumn id="2" name="Message"/>
-    <tableColumn id="3" name="Date" dataDxfId="1"/>
+    <tableColumn id="3" name="Date " dataDxfId="1"/>
     <tableColumn id="4" name="Time" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -849,29 +691,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C448CD-4BBC-4E04-BF29-C9148C174F0A}">
-  <dimension ref="A1:N23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C607642B-F121-413D-8B59-63A4D411EB4E}">
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.421875" style="0" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" style="0" customWidth="1"/>
-    <col min="3" max="3" width="28.57421875" style="0" customWidth="1"/>
-    <col min="4" max="4" width="25.421875" style="0" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" style="0" customWidth="1"/>
-    <col min="6" max="6" width="27.57421875" style="0" customWidth="1"/>
-    <col min="7" max="7" width="33.00390625" style="0" customWidth="1"/>
-    <col min="8" max="8" width="34.8515625" style="0" customWidth="1"/>
-    <col min="9" max="9" width="35.28125" style="0" customWidth="1"/>
-    <col min="10" max="10" width="32.00390625" style="0" customWidth="1"/>
-    <col min="11" max="11" width="31.421875" style="0" customWidth="1"/>
-    <col min="12" max="12" width="28.7109375" style="0" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" style="0" customWidth="1"/>
-    <col min="14" max="14" width="41.421875" style="0" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" style="0" customWidth="1"/>
+    <col min="2" max="2" width="16.28125" style="0" customWidth="1"/>
+    <col min="3" max="3" width="23.57421875" style="0" customWidth="1"/>
+    <col min="4" max="4" width="17.421875" style="0" customWidth="1"/>
+    <col min="5" max="9" width="11.00390625" style="0" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" style="0" customWidth="1"/>
+    <col min="11" max="13" width="12.00390625" style="0" customWidth="1"/>
+    <col min="14" max="14" width="21.00390625" style="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15">
@@ -891,257 +727,116 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
       <c r="N1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="4:13" ht="15">
-      <c r="D2" s="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1">
+        <v>38510</v>
+      </c>
+      <c r="E2">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" ht="15">
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" ht="15">
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" ht="15">
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" ht="15">
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" ht="15">
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" ht="15">
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" ht="15">
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" ht="15">
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" ht="15">
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" ht="15">
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" ht="15">
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" ht="15">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" ht="15">
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" ht="15">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" ht="15">
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" ht="15">
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" ht="15">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="6">
-        <v>38510</v>
-      </c>
-      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="F19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J19" t="s">
-        <v>35</v>
-      </c>
-      <c r="K19" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="15">
-      <c r="A20" t="s">
+      <c r="D3" s="6">
+        <v>45059</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
         <v>37</v>
       </c>
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="6">
-        <v>45814</v>
-      </c>
-      <c r="E20">
-        <v>-1</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="J3" t="s">
         <v>39</v>
       </c>
-      <c r="G20" t="s">
+      <c r="K3" t="s">
         <v>40</v>
       </c>
-      <c r="H20" t="s">
-        <v>41</v>
-      </c>
-      <c r="I20" t="s">
-        <v>41</v>
-      </c>
-      <c r="J20" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20" t="s">
-        <v>41</v>
-      </c>
-      <c r="L20" t="s">
-        <v>41</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="6">
-        <v>45789</v>
-      </c>
-      <c r="E21">
-        <v>-1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21" t="s">
-        <v>45</v>
-      </c>
-      <c r="J21" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21" t="s">
-        <v>45</v>
-      </c>
-      <c r="L21" t="s">
-        <v>45</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" ht="15">
-      <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="15">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="6">
-        <v>45814</v>
-      </c>
-      <c r="E23">
-        <v>-1</v>
-      </c>
-      <c r="F23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="L3" t="s">
         <v>40</v>
       </c>
-      <c r="H23" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" t="s">
-        <v>46</v>
-      </c>
-      <c r="J23" t="s">
-        <v>46</v>
-      </c>
-      <c r="K23" t="s">
-        <v>46</v>
-      </c>
-      <c r="L23" t="s">
-        <v>46</v>
-      </c>
-      <c r="M23">
+      <c r="M3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
+  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" r:id="rId2"/>
   <tableParts>
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -1149,271 +844,88 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2690A33-58B7-4ADF-94CE-999BF9B2160C}">
-  <dimension ref="A1:D18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92BD07A-15DB-44F0-B14F-DCF7753AE003}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.421875" style="0" customWidth="1"/>
-    <col min="2" max="2" width="36.00390625" style="0" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="38.00390625" style="2" customWidth="1"/>
+    <col min="1" max="2" width="11.00390625" style="0" customWidth="1"/>
+    <col min="3" max="3" width="11.00390625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.00390625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1">
-        <v>45757</v>
+        <v>45790</v>
       </c>
       <c r="D2" s="2">
-        <v>45757.8282986111</v>
+        <v>45790.446932870371</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1">
-        <v>45761</v>
+        <v>45790</v>
       </c>
       <c r="D3" s="2">
-        <v>45761.7331712963</v>
+        <v>45790.447175925925</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1">
-        <v>45761</v>
+        <v>45790</v>
       </c>
       <c r="D4" s="2">
-        <v>45761.7414467593</v>
+        <v>45790.447777777779</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1">
-        <v>45761</v>
+        <v>45790</v>
       </c>
       <c r="D5" s="2">
-        <v>45761.7418981481</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1">
-        <v>45768</v>
-      </c>
-      <c r="D6" s="2">
-        <v>45768.8714467593</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1">
-        <v>45782</v>
-      </c>
-      <c r="D7" s="2">
-        <v>45782.6824537037</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1">
-        <v>45782</v>
-      </c>
-      <c r="D8" s="2">
-        <v>45782.683761574073</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1">
-        <v>45782</v>
-      </c>
-      <c r="D9" s="2">
-        <v>45782.68478009259</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1">
-        <v>45782</v>
-      </c>
-      <c r="D10" s="2">
-        <v>45782.689803240741</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1">
-        <v>45782</v>
-      </c>
-      <c r="D11" s="2">
-        <v>45782.690324074072</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="1">
-        <v>45782</v>
-      </c>
-      <c r="D12" s="2">
-        <v>45782.691527777781</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="1">
-        <v>45782</v>
-      </c>
-      <c r="D13" s="2">
-        <v>45782.819016203706</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="1">
-        <v>45782</v>
-      </c>
-      <c r="D14" s="2">
-        <v>45782.819884259261</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="1">
-        <v>45782</v>
-      </c>
-      <c r="D15" s="2">
-        <v>45782.8331712963</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="1">
-        <v>45782</v>
-      </c>
-      <c r="D16" s="2">
-        <v>45782.849745370368</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="1">
-        <v>45782</v>
-      </c>
-      <c r="D17" s="2">
-        <v>45782.852627314816</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="1">
-        <v>45782</v>
-      </c>
-      <c r="D18" s="2">
-        <v>45782.853900462964</v>
+        <v>45790.450601851851</v>
       </c>
     </row>
   </sheetData>
@@ -1436,42 +948,42 @@
   <sheetData>
     <row r="1" ht="15">
       <c r="B1" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" ht="15">
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" ht="15">
       <c r="B4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" ht="15">
       <c r="B5" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" ht="15">
       <c r="B7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" ht="15">
       <c r="B8" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" ht="15">
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" ht="15">
       <c r="B11" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="65416" yWindow="65416" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="65416" yWindow="65416" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
-    <sheet name="Evaluation Warning" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Evaluation Warning" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,129 +23,393 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="129">
+  <si>
+    <t>Gender</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Gender</t>
-  </si>
-  <si>
     <t>Hobbies</t>
   </si>
   <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
     <t>Birthday</t>
   </si>
   <si>
     <t>Age</t>
   </si>
   <si>
+    <t>Favorite Color</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Saying</t>
+  </si>
+  <si>
     <t>Course</t>
   </si>
   <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
-    <t>User</t>
+    <t>Profile Path</t>
   </si>
   <si>
     <t>Message</t>
   </si>
   <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>Time</t>
   </si>
   <si>
-    <t xml:space="preserve"> Favorite Color</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saying </t>
-  </si>
-  <si>
-    <t>Pictures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date </t>
+    <t>Vincent Rupita</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Badminton </t>
+  </si>
+  <si>
+    <t>Cebu City</t>
+  </si>
+  <si>
+    <t>Vincentrupita@gmail.com</t>
+  </si>
+  <si>
+    <t>Blue</t>
   </si>
   <si>
     <t>Vincent</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>VolleyballBasketball</t>
-  </si>
-  <si>
-    <t>Blue</t>
+    <t>Say</t>
   </si>
   <si>
     <t>BSIT</t>
   </si>
   <si>
-    <t>Cebu City</t>
-  </si>
-  <si>
-    <t>daadw</t>
-  </si>
-  <si>
-    <t>Vincent@gmail.com</t>
+    <t>C:\Users\HF\Desktop\Main\Profiles\Minimalist Avatar - Illustration on Behance.jpg</t>
+  </si>
+  <si>
+    <t>Buy Now!</t>
+  </si>
+  <si>
+    <t>mailto:support@e-iceblue.com</t>
+  </si>
+  <si>
+    <t>Contact US</t>
+  </si>
+  <si>
+    <t>https://www.e-iceblue.com</t>
+  </si>
+  <si>
+    <t>Home page</t>
+  </si>
+  <si>
+    <t>e-iceblue Inc. 2002-2025 All rights reserverd</t>
+  </si>
+  <si>
+    <t>Spire.XLS for .NET</t>
+  </si>
+  <si>
+    <t>Added a new Student to the list.</t>
+  </si>
+  <si>
+    <t>08 : 04 : 05 : AM</t>
+  </si>
+  <si>
+    <t>Chandria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volleyball Volleyball </t>
+  </si>
+  <si>
+    <t>Chandria@gmail.com</t>
+  </si>
+  <si>
+    <t>chans</t>
+  </si>
+  <si>
+    <t>BSTM</t>
+  </si>
+  <si>
+    <t>C:\Users\HF\Desktop\Main\Profiles\173fc80f-45e9-4175-97f8-9d458a01b5be.jpg</t>
+  </si>
+  <si>
+    <t>08 : 20 : 35 : AM</t>
+  </si>
+  <si>
+    <t>Searched in the active list.</t>
+  </si>
+  <si>
+    <t>08 : 22 : 35 : AM</t>
+  </si>
+  <si>
+    <t>08 : 22 : 44 : AM</t>
+  </si>
+  <si>
+    <t>08 : 22 : 53 : AM</t>
+  </si>
+  <si>
+    <t>08 : 23 : 02 : AM</t>
+  </si>
+  <si>
+    <t>Samler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basketball </t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>sda</t>
+  </si>
+  <si>
+    <t>BEED</t>
+  </si>
+  <si>
+    <t>C:\Users\HF\Desktop\Main\Profiles\A reflection of quiet strength and effortless….jpg</t>
+  </si>
+  <si>
+    <t>08 : 24 : 04 : AM</t>
+  </si>
+  <si>
+    <t>Clicked the Login Button.</t>
+  </si>
+  <si>
+    <t>09 : 50 : 48 : AM</t>
+  </si>
+  <si>
+    <t>09 : 52 : 51 : AM</t>
+  </si>
+  <si>
+    <t>Added a New Student.</t>
+  </si>
+  <si>
+    <t>09 : 54 : 09 : AM</t>
+  </si>
+  <si>
+    <t>Jean</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volleyball </t>
+  </si>
+  <si>
+    <t>Jean@gmail.com</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>dawdawd</t>
+  </si>
+  <si>
+    <t>C:\Users\HF\Desktop\Main\Profiles\976875ef-1bdf-4a9a-a430-fff6a2de03b0.jpg</t>
+  </si>
+  <si>
+    <t>09 : 54 : 11 : AM</t>
+  </si>
+  <si>
+    <t>Deleted a Student.</t>
+  </si>
+  <si>
+    <t>09 : 54 : 22 : AM</t>
+  </si>
+  <si>
+    <t>10/15/2004 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Searched in the Inactive list.</t>
+  </si>
+  <si>
+    <t>09 : 54 : 57 : AM</t>
+  </si>
+  <si>
+    <t>09 : 56 : 42 : AM</t>
+  </si>
+  <si>
+    <t>10 : 00 : 47 : AM</t>
   </si>
   <si>
     <t>https://www.e-iceblue.com/Buy/Spire.XLS.html</t>
   </si>
   <si>
-    <t>Buy Now!</t>
-  </si>
-  <si>
-    <t>mailto:support@e-iceblue.com</t>
-  </si>
-  <si>
-    <t>Contact US</t>
-  </si>
-  <si>
-    <t>https://www.e-iceblue.com</t>
-  </si>
-  <si>
-    <t>Home page</t>
-  </si>
-  <si>
-    <t>e-iceblue Inc. 2002-2025 All rights reserverd</t>
-  </si>
-  <si>
-    <t>Spire.XLS for .NET</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
-  <si>
-    <t>Allosada</t>
-  </si>
-  <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>dawadw</t>
-  </si>
-  <si>
-    <t>allosada@gmail.com</t>
-  </si>
-  <si>
-    <t>allosada</t>
+    <t>10 : 25 : 37 : AM</t>
+  </si>
+  <si>
+    <t>10 : 26 : 54 : AM</t>
+  </si>
+  <si>
+    <t>10 : 27 : 40 : AM</t>
+  </si>
+  <si>
+    <t>11 : 53 : 21 : AM</t>
+  </si>
+  <si>
+    <t>11 : 53 : 30 : AM</t>
+  </si>
+  <si>
+    <t>11 : 55 : 07 : AM</t>
+  </si>
+  <si>
+    <t>Keith</t>
+  </si>
+  <si>
+    <t>Keith@gmail.com</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>11 : 55 : 09 : AM</t>
+  </si>
+  <si>
+    <t>11 : 55 : 34 : AM</t>
+  </si>
+  <si>
+    <t>11 : 55 : 43 : AM</t>
+  </si>
+  <si>
+    <t>11 : 55 : 50 : AM</t>
+  </si>
+  <si>
+    <t>Clicked the Logout Button.</t>
+  </si>
+  <si>
+    <t>11 : 56 : 19 : AM</t>
+  </si>
+  <si>
+    <t>12 : 19 : 49 : PM</t>
+  </si>
+  <si>
+    <t>Updated a Student.</t>
+  </si>
+  <si>
+    <t>12 : 20 : 18 : PM</t>
+  </si>
+  <si>
+    <t>12 : 27 : 11 : PM</t>
+  </si>
+  <si>
+    <t>12 : 27 : 56 : PM</t>
+  </si>
+  <si>
+    <t>12 : 28 : 30 : PM</t>
+  </si>
+  <si>
+    <t>12 : 28 : 40 : PM</t>
+  </si>
+  <si>
+    <t>gab</t>
+  </si>
+  <si>
+    <t>gab2e@gmail.com</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>12 : 28 : 43 : PM</t>
+  </si>
+  <si>
+    <t>12 : 29 : 36 : PM</t>
+  </si>
+  <si>
+    <t>12 : 29 : 44 : PM</t>
+  </si>
+  <si>
+    <t>12 : 29 : 50 : PM</t>
+  </si>
+  <si>
+    <t>Kath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basketball Basketball Basketball </t>
+  </si>
+  <si>
+    <t>kath@gmail.com</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>gabkath</t>
+  </si>
+  <si>
+    <t>dawd</t>
+  </si>
+  <si>
+    <t>C:\Users\HF\Desktop\Main\Profiles\025ecf1c-5224-4faa-b995-8840516e1b9d.jpg</t>
+  </si>
+  <si>
+    <t>12 : 29 : 51 : PM</t>
+  </si>
+  <si>
+    <t>12 : 30 : 42 : PM</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>cebu</t>
+  </si>
+  <si>
+    <t>sd@gmail.com</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>C:\Users\HF\Desktop\Main\Profiles\Hello there, thanks for passing by _) I'm drawing….jpg</t>
+  </si>
+  <si>
+    <t>12 : 30 : 43 : PM</t>
+  </si>
+  <si>
+    <t>12 : 30 : 50 : PM</t>
+  </si>
+  <si>
+    <t>7/14/1999 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>12 : 30 : 55 : PM</t>
+  </si>
+  <si>
+    <t>7/10/2004 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>12 : 31 : 42 : PM</t>
   </si>
 </sst>
 </file>
@@ -174,17 +439,17 @@
       <family val="2"/>
     </font>
     <font>
-      <u val="single"/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u val="single"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -207,7 +472,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="483">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -245,7 +510,455 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment/>
       <protection/>
     </xf>
@@ -254,9 +967,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="34">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="482">
       <alignment/>
       <protection/>
     </xf>
@@ -269,7 +982,7 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="34"/>
+    <cellStyle name="Hyperlink" xfId="482"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -360,35 +1073,58 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N20" totalsRowShown="0">
-  <autoFilter ref="A1:N20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N28" totalsRowShown="0">
+  <autoFilter ref="A1:N30"/>
   <tableColumns count="14">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Gender"/>
     <tableColumn id="3" name="Hobbies"/>
-    <tableColumn id="4" name="Birthday"/>
-    <tableColumn id="5" name="Age"/>
-    <tableColumn id="6" name=" Favorite Color"/>
-    <tableColumn id="7" name="Course"/>
-    <tableColumn id="8" name="Address"/>
-    <tableColumn id="9" name="Saying "/>
-    <tableColumn id="10" name="Email"/>
-    <tableColumn id="11" name="Username"/>
-    <tableColumn id="12" name="Password"/>
+    <tableColumn id="4" name="Address"/>
+    <tableColumn id="5" name="Email"/>
+    <tableColumn id="6" name="Birthday"/>
+    <tableColumn id="7" name="Age"/>
+    <tableColumn id="8" name="Favorite Color"/>
+    <tableColumn id="9" name="Username"/>
+    <tableColumn id="10" name="Password"/>
+    <tableColumn id="11" name="Saying"/>
+    <tableColumn id="12" name="Course"/>
     <tableColumn id="13" name="Status"/>
-    <tableColumn id="14" name="Pictures"/>
+    <tableColumn id="14" name="Profile Path"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D21" totalsRowShown="0">
-  <autoFilter ref="A1:D21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:N31" totalsRowShown="0">
+  <autoFilter ref="A1:N31"/>
+  <tableColumns count="14">
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Gender"/>
+    <tableColumn id="3" name="Hobbies"/>
+    <tableColumn id="4" name="Address"/>
+    <tableColumn id="5" name="Email"/>
+    <tableColumn id="6" name="Birthday"/>
+    <tableColumn id="7" name="Age"/>
+    <tableColumn id="8" name="Favorite Color"/>
+    <tableColumn id="9" name="Username"/>
+    <tableColumn id="10" name="Password"/>
+    <tableColumn id="11" name="Saying"/>
+    <tableColumn id="12" name="Course"/>
+    <tableColumn id="13" name="Status"/>
+    <tableColumn id="14" name="Profile Path"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D31" totalsRowShown="0">
+  <autoFilter ref="A1:D31"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="User"/>
+    <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Message"/>
-    <tableColumn id="3" name="Date " dataDxfId="1"/>
+    <tableColumn id="3" name="Date" dataDxfId="1"/>
     <tableColumn id="4" name="Time" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -412,7 +1148,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -424,7 +1160,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -471,23 +1207,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -523,23 +1242,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -691,31 +1393,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C607642B-F121-413D-8B59-63A4D411EB4E}">
-  <dimension ref="A1:N3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="0" customWidth="1"/>
-    <col min="2" max="2" width="16.28125" style="0" customWidth="1"/>
-    <col min="3" max="3" width="23.57421875" style="0" customWidth="1"/>
-    <col min="4" max="4" width="17.421875" style="0" customWidth="1"/>
-    <col min="5" max="9" width="11.00390625" style="0" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" style="0" customWidth="1"/>
-    <col min="11" max="13" width="12.00390625" style="0" customWidth="1"/>
-    <col min="14" max="14" width="21.00390625" style="0" customWidth="1"/>
+    <col min="1" max="1" width="20.421875" style="0" customWidth="1"/>
+    <col min="2" max="2" width="11.00390625" style="0" customWidth="1"/>
+    <col min="3" max="3" width="21.57421875" style="0" customWidth="1"/>
+    <col min="4" max="4" width="11.00390625" style="0" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" style="0" customWidth="1"/>
+    <col min="6" max="7" width="11.00390625" style="0" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" style="0" customWidth="1"/>
+    <col min="9" max="9" width="11.00390625" style="0" customWidth="1"/>
+    <col min="10" max="13" width="12.00390625" style="0" customWidth="1"/>
+    <col min="14" max="14" width="78.28125" style="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -727,116 +1431,257 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="1">
-        <v>38510</v>
-      </c>
-      <c r="E2">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" s="1">
+        <v>38145</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
       <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2">
+        <v>123</v>
+      </c>
+      <c r="K2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="15">
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15">
       <c r="A3" t="s">
         <v>36</v>
       </c>
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="1">
+        <v>38549</v>
+      </c>
+      <c r="G3">
         <v>19</v>
       </c>
-      <c r="D3" s="6">
-        <v>45059</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
       <c r="I3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3">
+        <v>1234</v>
+      </c>
+      <c r="K3" t="s">
         <v>39</v>
-      </c>
-      <c r="K3" t="s">
-        <v>40</v>
       </c>
       <c r="L3" t="s">
         <v>40</v>
       </c>
       <c r="M3">
         <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="1">
+        <v>38500</v>
+      </c>
+      <c r="G4">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="6">
+        <v>38479</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15">
+      <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="6">
+        <v>41762</v>
+      </c>
+      <c r="G6">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" r:id="rId2"/>
+  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
   <tableParts>
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -844,88 +1689,193 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92BD07A-15DB-44F0-B14F-DCF7753AE003}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B93DEC7D-65B2-4A83-A31D-9491563CCCCA}">
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="11.00390625" style="0" customWidth="1"/>
-    <col min="3" max="3" width="11.00390625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.00390625" style="2" customWidth="1"/>
+    <col min="1" max="9" width="11.00390625" style="0" customWidth="1"/>
+    <col min="10" max="14" width="12.00390625" style="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:14" ht="15">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:14" ht="15">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="1">
-        <v>45790</v>
-      </c>
-      <c r="D2" s="2">
-        <v>45790.446932870371</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="1">
-        <v>45790</v>
-      </c>
-      <c r="D3" s="2">
-        <v>45790.447175925925</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K3" t="s">
+        <v>120</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="1">
-        <v>45790</v>
-      </c>
-      <c r="D4" s="2">
-        <v>45790.447777777779</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="1">
-        <v>45790</v>
-      </c>
-      <c r="D5" s="2">
-        <v>45790.450601851851</v>
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -939,6 +1889,601 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95AE0342-6710-4F5C-977B-336FEC644AFF}">
+  <dimension ref="A1:D43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.8515625" style="0" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" style="0" customWidth="1"/>
+    <col min="3" max="3" width="11.00390625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.8515625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" ht="15">
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45793</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="15">
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45793</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45793</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45793</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45793</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45793</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45793</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="15">
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45793</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="15">
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45793</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45793</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45793</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45793</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45793</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="15">
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45793</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="15">
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45793</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="15">
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45793</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="1">
+        <v>45793</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45793</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="15">
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="1">
+        <v>45793</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="15">
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="1">
+        <v>45793</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="1">
+        <v>45793</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="1">
+        <v>45793</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="1">
+        <v>45793</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="1">
+        <v>45793</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="1">
+        <v>45793</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="1">
+        <v>45793</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="15">
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="1">
+        <v>45793</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="1">
+        <v>45793</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="15">
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="1">
+        <v>45793</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="1">
+        <v>45793</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="1">
+        <v>45793</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="1">
+        <v>45793</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="1">
+        <v>45793</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="1">
+        <v>45793</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="1">
+        <v>45793</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="1">
+        <v>45793</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="1">
+        <v>45793</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="1">
+        <v>45793</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="1">
+        <v>45793</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="1">
+        <v>45793</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="1">
+        <v>45793</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="1">
+        <v>45793</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9" r:id="rId2"/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:B11"/>
   <sheetViews>
@@ -983,7 +2528,7 @@
     </row>
     <row r="11" ht="15">
       <c r="B11" s="4" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
